--- a/data/trans_orig/P19F$mañana-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19F$mañana-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>149113</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130482</v>
+        <v>131400</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168068</v>
+        <v>168354</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3802631226074736</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3327497717486531</v>
+        <v>0.335090723658733</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4286012826054107</v>
+        <v>0.4293290822187161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>191</v>
@@ -762,19 +762,19 @@
         <v>213941</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>188744</v>
+        <v>188660</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>239271</v>
+        <v>235986</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4013184640443201</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.354052564934692</v>
+        <v>0.3538947239493663</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4488342528578361</v>
+        <v>0.4426707218645965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>341</v>
@@ -783,19 +783,19 @@
         <v>363054</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>333783</v>
+        <v>331979</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>393541</v>
+        <v>394185</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3923947381317194</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3607577621227501</v>
+        <v>0.3588083418261531</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4253452579478998</v>
+        <v>0.4260409982850318</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>290289</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>272203</v>
+        <v>273339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>305609</v>
+        <v>306969</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7402837307899199</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6941627772936303</v>
+        <v>0.6970573848122729</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.77935357531884</v>
+        <v>0.7828218514246572</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>401</v>
@@ -833,19 +833,19 @@
         <v>442587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>423438</v>
+        <v>422759</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>460249</v>
+        <v>459162</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8302221903138544</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7943011589877896</v>
+        <v>0.7930269424839612</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8633529170757241</v>
+        <v>0.8613128280331367</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>694</v>
@@ -854,19 +854,19 @@
         <v>732876</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>706511</v>
+        <v>705947</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>757343</v>
+        <v>757368</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7921042541027317</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7636079888269661</v>
+        <v>0.7629989941396026</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8185486537290136</v>
+        <v>0.8185753835615518</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>114959</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97660</v>
+        <v>98674</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>133997</v>
+        <v>132197</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2931628398612441</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2490482123825586</v>
+        <v>0.2516342728910373</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3417149739924346</v>
+        <v>0.3371227876057611</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>135</v>
@@ -904,19 +904,19 @@
         <v>146243</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>126828</v>
+        <v>127140</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>167654</v>
+        <v>170026</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2743287436903804</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2379082182182091</v>
+        <v>0.2384933117302976</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3144920797459316</v>
+        <v>0.3189419790900899</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>251</v>
@@ -925,19 +925,19 @@
         <v>261202</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>234743</v>
+        <v>231541</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>288371</v>
+        <v>291271</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2823110560430184</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2537138559314613</v>
+        <v>0.2502535063051337</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3116762948784744</v>
+        <v>0.314810490551947</v>
       </c>
     </row>
     <row r="7">
@@ -958,19 +958,19 @@
         <v>463978</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>431103</v>
+        <v>431380</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>498557</v>
+        <v>498416</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4094160349496494</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3804072926027583</v>
+        <v>0.380651735861645</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4399286700622311</v>
+        <v>0.4398044266088645</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>445</v>
@@ -979,19 +979,19 @@
         <v>465230</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>434827</v>
+        <v>435706</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>496432</v>
+        <v>496718</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.463517877453274</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4332268425912024</v>
+        <v>0.4341021747668923</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4946053831042693</v>
+        <v>0.4948902244363988</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>890</v>
@@ -1000,19 +1000,19 @@
         <v>929208</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>883346</v>
+        <v>880995</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>975051</v>
+        <v>972472</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4348267438368549</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4133656373702295</v>
+        <v>0.4122655111174248</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.456279124923201</v>
+        <v>0.4550721904276429</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>888474</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>858024</v>
+        <v>859993</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>914844</v>
+        <v>916599</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7839932221811262</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7571247264493924</v>
+        <v>0.7588613408589059</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.807262876394958</v>
+        <v>0.8088111420727083</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>777</v>
@@ -1050,19 +1050,19 @@
         <v>802916</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>776557</v>
+        <v>775829</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>827979</v>
+        <v>827612</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7999606145958336</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7736993735582899</v>
+        <v>0.772973919035735</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8249315302492232</v>
+        <v>0.8245656978583595</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1623</v>
@@ -1071,19 +1071,19 @@
         <v>1691389</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1655119</v>
+        <v>1653338</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1731448</v>
+        <v>1726999</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7914928329441187</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7745197611313527</v>
+        <v>0.7736865878244468</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8102382418292728</v>
+        <v>0.8081564687857474</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>355897</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>324954</v>
+        <v>324732</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>388542</v>
+        <v>388347</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3140451660048604</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2867408782035394</v>
+        <v>0.2865450508605604</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3428511099846621</v>
+        <v>0.3426788465065969</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>325</v>
@@ -1121,19 +1121,19 @@
         <v>334025</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>306161</v>
+        <v>301443</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>364624</v>
+        <v>363374</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3327956835563111</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3050338866287739</v>
+        <v>0.3003337289411719</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3632818357400115</v>
+        <v>0.3620363934374591</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>660</v>
@@ -1142,19 +1142,19 @@
         <v>689922</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>649248</v>
+        <v>647072</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>735947</v>
+        <v>736017</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3228519629813668</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.303818336189789</v>
+        <v>0.3027999833545842</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3443896654398582</v>
+        <v>0.3444224174100153</v>
       </c>
     </row>
     <row r="10">
@@ -1175,19 +1175,19 @@
         <v>110901</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>95833</v>
+        <v>95972</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>125785</v>
+        <v>127160</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.45670328973744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3946489450952312</v>
+        <v>0.3952225452815016</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5179951974249187</v>
+        <v>0.5236566749151791</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>96</v>
@@ -1196,19 +1196,19 @@
         <v>102559</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86644</v>
+        <v>88099</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118283</v>
+        <v>116129</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5031900619710761</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4251063901672685</v>
+        <v>0.4322479791426553</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.580340684087959</v>
+        <v>0.5697698699171606</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>199</v>
@@ -1217,19 +1217,19 @@
         <v>213460</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>189778</v>
+        <v>191547</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>236535</v>
+        <v>234608</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4779164248298662</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4248938400279085</v>
+        <v>0.4288559343022941</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5295802421247215</v>
+        <v>0.5252649789145436</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>195344</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>182145</v>
+        <v>181055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>206624</v>
+        <v>207750</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8044480558082064</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7500908397593961</v>
+        <v>0.7456023613646888</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8508984559677039</v>
+        <v>0.8555371201097548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -1267,19 +1267,19 @@
         <v>158422</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>144518</v>
+        <v>145539</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>169108</v>
+        <v>169429</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7772753468249415</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7090599337006889</v>
+        <v>0.7140688963528972</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8297040862223062</v>
+        <v>0.8312797673925056</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>330</v>
@@ -1288,19 +1288,19 @@
         <v>353766</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>334283</v>
+        <v>332665</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>371557</v>
+        <v>369104</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.792048435038836</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7484272277556425</v>
+        <v>0.7448049347614172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8318802554885405</v>
+        <v>0.8263884598216543</v>
       </c>
     </row>
     <row r="12">
@@ -1317,19 +1317,19 @@
         <v>74261</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60193</v>
+        <v>59058</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>90484</v>
+        <v>91134</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.305814361627666</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2478798326684594</v>
+        <v>0.2432077037876538</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3726227346450037</v>
+        <v>0.3752990992547749</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>76</v>
@@ -1338,19 +1338,19 @@
         <v>78293</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>64448</v>
+        <v>65467</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>94150</v>
+        <v>92365</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.384132794203711</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3162053398287911</v>
+        <v>0.3212035641097103</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4619328527861328</v>
+        <v>0.4531750305242358</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>144</v>
@@ -1359,19 +1359,19 @@
         <v>152554</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>132587</v>
+        <v>133507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>175148</v>
+        <v>173394</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3415531193567003</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2968501141984183</v>
+        <v>0.2989103044542328</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3921397382281943</v>
+        <v>0.3882124424688537</v>
       </c>
     </row>
     <row r="13">
@@ -1392,19 +1392,19 @@
         <v>723992</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>682108</v>
+        <v>679904</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>769630</v>
+        <v>768437</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4094448607641736</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3857574972469687</v>
+        <v>0.3845112404741113</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4352548579248944</v>
+        <v>0.4345801028535718</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>732</v>
@@ -1413,19 +1413,19 @@
         <v>781730</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>741336</v>
+        <v>738507</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>825459</v>
+        <v>825906</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4491134879068588</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4259068485101878</v>
+        <v>0.4242817317406504</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4742363768406841</v>
+        <v>0.4744934562292091</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1430</v>
@@ -1434,19 +1434,19 @@
         <v>1505722</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1444896</v>
+        <v>1449909</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1567495</v>
+        <v>1567232</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4291230285240277</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.411787975125913</v>
+        <v>0.4132166574721563</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4467281315438211</v>
+        <v>0.4466529607699495</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1374107</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1335261</v>
+        <v>1338867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1408079</v>
+        <v>1407915</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7771090196060519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7551403809807986</v>
+        <v>0.757179449290901</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7963217470207995</v>
+        <v>0.796229127013909</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1330</v>
@@ -1484,19 +1484,19 @@
         <v>1403925</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1365967</v>
+        <v>1369222</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1434939</v>
+        <v>1439120</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8065724903380922</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7847654316806562</v>
+        <v>0.786635442620046</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8243907407597304</v>
+        <v>0.826792533687667</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2647</v>
@@ -1505,19 +1505,19 @@
         <v>2778032</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2727129</v>
+        <v>2732820</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2827734</v>
+        <v>2832266</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.791724779253271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7772178498019332</v>
+        <v>0.7788398362688559</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8058896680049755</v>
+        <v>0.807181375601503</v>
       </c>
     </row>
     <row r="15">
@@ -1534,19 +1534,19 @@
         <v>545116</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>504448</v>
+        <v>502897</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>585054</v>
+        <v>582411</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3082838558932395</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.285284330376261</v>
+        <v>0.2844074139515729</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3308698576220674</v>
+        <v>0.329375154750655</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>536</v>
@@ -1555,19 +1555,19 @@
         <v>558561</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>519122</v>
+        <v>522962</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>596227</v>
+        <v>598572</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3209003450209446</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2982421198535887</v>
+        <v>0.3004481652022131</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3425396561519497</v>
+        <v>0.3438874069819661</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1055</v>
@@ -1576,19 +1576,19 @@
         <v>1103678</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1045226</v>
+        <v>1049395</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1160223</v>
+        <v>1165413</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3145424387451831</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.297884015422603</v>
+        <v>0.2990722426985452</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.330657649324507</v>
+        <v>0.3321367374520798</v>
       </c>
     </row>
     <row r="16">
